--- a/Immath/bin/Debug/reports/users.xlsx
+++ b/Immath/bin/Debug/reports/users.xlsx
@@ -68,25 +68,25 @@
     <t>รายได้สะสม</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>เก่ง</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>3/3/2560 14:30:00-3/3/2560 15:30:00</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>3/3/2560 14:30:00-3/3/2560 14:30:00</t>
+    <t>book_no</t>
+  </si>
+  <si>
+    <t>bill_no</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>ทดสอบ</t>
+  </si>
+  <si>
+    <t>6/3/2560 12:00:00-6/3/2560 15:00:00</t>
+  </si>
+  <si>
+    <t>งานบ้าน</t>
+  </si>
+  <si>
+    <t>6/3/2560 9:00:00-6/3/2560 12:00:00</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,36 +139,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -178,13 +150,11 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -502,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,29 +483,33 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,53 +534,65 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>42797.604432870372</v>
+        <v>42800.664953703701</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>450</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>165</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>42797.604699074072</v>
+        <v>42800.665254629632</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -615,25 +601,31 @@
         <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Immath/bin/Debug/reports/users.xlsx
+++ b/Immath/bin/Debug/reports/users.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Immath\Immath\bin\Debug\reports\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>รายงานรายได้ครู</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>6/3/2560 9:00:00-6/3/2560 12:00:00</t>
+  </si>
+  <si>
+    <t>7/3/2560 8:00:00-7/3/2560 17:00:00</t>
+  </si>
+  <si>
+    <t>7/3/2560 10:00:00-7/3/2560 11:00:00</t>
+  </si>
+  <si>
+    <t>19/3/2560 15:00:00-19/3/2560 17:00:00</t>
+  </si>
+  <si>
+    <t>19/3/2560 10:00:00-19/3/2560 16:00:00</t>
   </si>
 </sst>
 </file>
@@ -103,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -147,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -158,6 +176,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -482,13 +502,14 @@
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -507,7 +528,9 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1">
+        <v>4282</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -543,7 +566,9 @@
       <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>428.20000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -579,7 +604,9 @@
       <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>12.845999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -615,13 +642,194 @@
       <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>441.04599999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42801.435208333336</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1899</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>3840.9540000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42801.437141203707</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42813.639189814814</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>555</v>
+      </c>
+      <c r="D8" s="5">
+        <v>42813.63921296296</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42813.68241898148</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1002</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>555</v>
+      </c>
+      <c r="D10" s="7">
+        <v>42813.682430555556</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1002</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
